--- a/week2/task2 excel spreadsheet.xlsx
+++ b/week2/task2 excel spreadsheet.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara Pitouli\Desktop\Data science\week2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A7CC5FC6-ED7E-4587-BA21-00BA0716446C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB11011-DB6B-47F3-AB9A-2C0EAA02144F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="extcred1 (5)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>IMF Credit Outstanding  for all members from 1984 - 2022</t>
   </si>
@@ -45,11 +55,26 @@
   <si>
     <t>total_billions</t>
   </si>
+  <si>
+    <t>World GDP</t>
+  </si>
+  <si>
+    <t>World GDP_billions</t>
+  </si>
+  <si>
+    <t>world_gdp_percent</t>
+  </si>
+  <si>
+    <t>gdp percent</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -527,10 +552,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -885,11 +911,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -899,19 +925,24 @@
     <col min="3" max="3" width="14.3984375" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.06640625" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -930,8 +961,23 @@
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44834</v>
       </c>
@@ -952,8 +998,23 @@
         <f>D5/1000000000</f>
         <v>106.474728177</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5">
+        <v>96100091004540.906</v>
+      </c>
+      <c r="H5">
+        <v>96100.091</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J5">
+        <v>1.082511E-3</v>
+      </c>
+      <c r="K5">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44561</v>
       </c>
@@ -974,8 +1035,23 @@
         <f t="shared" ref="F6:F43" si="1">D6/1000000000</f>
         <v>104.029375706</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6">
+        <v>84906814189239.5</v>
+      </c>
+      <c r="H6">
+        <v>84906.814190000005</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J6">
+        <v>1.2471369999999999E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44196</v>
       </c>
@@ -996,8 +1072,23 @@
         <f t="shared" si="1"/>
         <v>105.890446969</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <v>87652863215992.594</v>
+      </c>
+      <c r="H7">
+        <v>87652.863219999999</v>
+      </c>
+      <c r="I7" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J7">
+        <v>8.3894999999999998E-4</v>
+      </c>
+      <c r="K7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43830</v>
       </c>
@@ -1018,8 +1109,23 @@
         <f t="shared" si="1"/>
         <v>73.536345315000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8">
+        <v>86413032779059.906</v>
+      </c>
+      <c r="H8">
+        <v>86413.032779999994</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J8">
+        <v>7.1542199999999995E-4</v>
+      </c>
+      <c r="K8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43465</v>
       </c>
@@ -1040,8 +1146,23 @@
         <f t="shared" si="1"/>
         <v>61.821792420999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9">
+        <v>81403977427442.5</v>
+      </c>
+      <c r="H9">
+        <v>81403.977429999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J9">
+        <v>5.6640599999999998E-4</v>
+      </c>
+      <c r="K9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43100</v>
       </c>
@@ -1062,8 +1183,23 @@
         <f t="shared" si="1"/>
         <v>46.107666541999997</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10">
+        <v>76465590005079</v>
+      </c>
+      <c r="H10">
+        <v>76465.59001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J10">
+        <v>7.2908999999999995E-4</v>
+      </c>
+      <c r="K10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>42735</v>
       </c>
@@ -1084,8 +1220,23 @@
         <f t="shared" si="1"/>
         <v>55.750278788000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11">
+        <v>75179266270828.203</v>
+      </c>
+      <c r="H11">
+        <v>75179.266269999993</v>
+      </c>
+      <c r="I11" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="J11">
+        <v>7.6262699999999999E-4</v>
+      </c>
+      <c r="K11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>42369</v>
       </c>
@@ -1106,8 +1257,23 @@
         <f t="shared" si="1"/>
         <v>57.333751898999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12">
+        <v>79708812241364.703</v>
+      </c>
+      <c r="H12">
+        <v>79708.812239999999</v>
+      </c>
+      <c r="I12" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="J12">
+        <v>9.4511900000000002E-4</v>
+      </c>
+      <c r="K12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>42004</v>
       </c>
@@ -1128,8 +1294,23 @@
         <f t="shared" si="1"/>
         <v>75.334319046000005</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13">
+        <v>77607198470255.703</v>
+      </c>
+      <c r="H13">
+        <v>77607.198470000003</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.1606349999999999E-3</v>
+      </c>
+      <c r="K13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>41639</v>
       </c>
@@ -1150,8 +1331,23 @@
         <f t="shared" si="1"/>
         <v>90.073641742999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14">
+        <v>75488064175234.297</v>
+      </c>
+      <c r="H14">
+        <v>75488.064180000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J14">
+        <v>1.269189E-3</v>
+      </c>
+      <c r="K14">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>41274</v>
       </c>
@@ -1172,8 +1368,23 @@
         <f t="shared" si="1"/>
         <v>95.808640754999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <v>73853784046173.906</v>
+      </c>
+      <c r="H15">
+        <v>73853.784050000002</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J15">
+        <v>1.2536330000000001E-3</v>
+      </c>
+      <c r="K15">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>40908</v>
       </c>
@@ -1194,8 +1405,23 @@
         <f t="shared" si="1"/>
         <v>92.585525383999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <v>66596051013842.602</v>
+      </c>
+      <c r="H16">
+        <v>66596.051009999996</v>
+      </c>
+      <c r="I16" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="J16">
+        <v>9.0755299999999996E-4</v>
+      </c>
+      <c r="K16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>40543</v>
       </c>
@@ -1216,8 +1442,23 @@
         <f t="shared" si="1"/>
         <v>60.439448644000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <v>60809111827058.898</v>
+      </c>
+      <c r="H17">
+        <v>60809.111830000002</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J17">
+        <v>6.9563299999999997E-4</v>
+      </c>
+      <c r="K17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>40178</v>
       </c>
@@ -1238,8 +1479,23 @@
         <f t="shared" si="1"/>
         <v>42.300847722</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18">
+        <v>64123704273248.602</v>
+      </c>
+      <c r="H18">
+        <v>64123.704270000002</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J18">
+        <v>3.35092E-4</v>
+      </c>
+      <c r="K18">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>39813</v>
       </c>
@@ -1260,8 +1516,23 @@
         <f t="shared" si="1"/>
         <v>21.487336753000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19">
+        <v>58355015091735.703</v>
+      </c>
+      <c r="H19">
+        <v>58355.015090000001</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="J19">
+        <v>1.68505E-4</v>
+      </c>
+      <c r="K19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>39447</v>
       </c>
@@ -1282,8 +1553,23 @@
         <f t="shared" si="1"/>
         <v>9.8330923380000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20">
+        <v>51779845590495.898</v>
+      </c>
+      <c r="H20">
+        <v>51779.845589999997</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J20">
+        <v>2.6393800000000002E-4</v>
+      </c>
+      <c r="K20">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>39082</v>
       </c>
@@ -1304,8 +1590,23 @@
         <f t="shared" si="1"/>
         <v>13.666660759000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G21">
+        <v>47779714794501.398</v>
+      </c>
+      <c r="H21">
+        <v>47779.714789999998</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="J21">
+        <v>7.2654800000000004E-4</v>
+      </c>
+      <c r="K21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>38717</v>
       </c>
@@ -1326,8 +1627,23 @@
         <f t="shared" si="1"/>
         <v>34.714264905</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G22">
+        <v>44117601127347.203</v>
+      </c>
+      <c r="H22">
+        <v>44117.601130000003</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J22">
+        <v>1.4085040000000001E-3</v>
+      </c>
+      <c r="K22">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>38352</v>
       </c>
@@ -1348,8 +1664,23 @@
         <f t="shared" si="1"/>
         <v>62.139796027000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G23">
+        <v>39146988388574.703</v>
+      </c>
+      <c r="H23">
+        <v>39146.988389999999</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J23">
+        <v>1.8369980000000001E-3</v>
+      </c>
+      <c r="K23">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>37986</v>
       </c>
@@ -1370,8 +1701,23 @@
         <f t="shared" si="1"/>
         <v>71.912955980000007</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G24">
+        <v>34911427050143.301</v>
+      </c>
+      <c r="H24">
+        <v>34911.427049999998</v>
+      </c>
+      <c r="I24" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="J24">
+        <v>2.0185289999999998E-3</v>
+      </c>
+      <c r="K24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>37621</v>
       </c>
@@ -1392,8 +1738,23 @@
         <f t="shared" si="1"/>
         <v>70.469729806000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G25">
+        <v>33615435966786.102</v>
+      </c>
+      <c r="H25">
+        <v>33615.435969999999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J25">
+        <v>1.7819730000000001E-3</v>
+      </c>
+      <c r="K25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>37256</v>
       </c>
@@ -1414,8 +1775,23 @@
         <f t="shared" si="1"/>
         <v>59.901804093000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G26">
+        <v>33830878799862.602</v>
+      </c>
+      <c r="H26">
+        <v>33830.878799999999</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J26">
+        <v>1.457903E-3</v>
+      </c>
+      <c r="K26">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>36891</v>
       </c>
@@ -1436,8 +1812,23 @@
         <f t="shared" si="1"/>
         <v>49.322126517000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G27">
+        <v>32737374968670.301</v>
+      </c>
+      <c r="H27">
+        <v>32737.374970000001</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J27">
+        <v>1.7562840000000001E-3</v>
+      </c>
+      <c r="K27">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>36525</v>
       </c>
@@ -1458,8 +1849,23 @@
         <f t="shared" si="1"/>
         <v>57.496136237000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G28">
+        <v>31539957901617.898</v>
+      </c>
+      <c r="H28">
+        <v>31539.957900000001</v>
+      </c>
+      <c r="I28" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="J28">
+        <v>2.1160409999999999E-3</v>
+      </c>
+      <c r="K28">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>36160</v>
       </c>
@@ -1480,8 +1886,23 @@
         <f t="shared" si="1"/>
         <v>66.739842976000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G29">
+        <v>31620443662618.801</v>
+      </c>
+      <c r="H29">
+        <v>31620.443660000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J29">
+        <v>1.662497E-3</v>
+      </c>
+      <c r="K29">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>35795</v>
       </c>
@@ -1502,8 +1923,23 @@
         <f t="shared" si="1"/>
         <v>52.568901205000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G30">
+        <v>31736660050489.398</v>
+      </c>
+      <c r="H30">
+        <v>31736.660049999999</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J30">
+        <v>1.3236770000000001E-3</v>
+      </c>
+      <c r="K30">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>35430</v>
       </c>
@@ -1524,8 +1960,23 @@
         <f t="shared" si="1"/>
         <v>42.009082556999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G31">
+        <v>31043647879191</v>
+      </c>
+      <c r="H31">
+        <v>31043.64788</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J31">
+        <v>1.339617E-3</v>
+      </c>
+      <c r="K31">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>35064</v>
       </c>
@@ -1546,8 +1997,23 @@
         <f t="shared" si="1"/>
         <v>41.586611939999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G32">
+        <v>27872255132401.301</v>
+      </c>
+      <c r="H32">
+        <v>27872.255130000001</v>
+      </c>
+      <c r="I32" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J32">
+        <v>1.0839249999999999E-3</v>
+      </c>
+      <c r="K32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>34699</v>
       </c>
@@ -1568,8 +2034,23 @@
         <f t="shared" si="1"/>
         <v>30.211445449999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G33">
+        <v>25821978923417.602</v>
+      </c>
+      <c r="H33">
+        <v>25821.978920000001</v>
+      </c>
+      <c r="I33" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J33">
+        <v>1.128478E-3</v>
+      </c>
+      <c r="K33">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>34334</v>
       </c>
@@ -1590,8 +2071,23 @@
         <f t="shared" si="1"/>
         <v>29.139537929999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G34">
+        <v>25406106106319.102</v>
+      </c>
+      <c r="H34">
+        <v>25406.106110000001</v>
+      </c>
+      <c r="I34" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J34">
+        <v>1.0931090000000001E-3</v>
+      </c>
+      <c r="K34">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33969</v>
       </c>
@@ -1612,8 +2108,23 @@
         <f t="shared" si="1"/>
         <v>27.771636514000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G35">
+        <v>23759572449577.398</v>
+      </c>
+      <c r="H35">
+        <v>23759.57245</v>
+      </c>
+      <c r="I35" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J35">
+        <v>1.122255E-3</v>
+      </c>
+      <c r="K35">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>33603</v>
       </c>
@@ -1634,8 +2145,23 @@
         <f t="shared" si="1"/>
         <v>26.664291722000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G36">
+        <v>22779978683109.699</v>
+      </c>
+      <c r="H36">
+        <v>22779.97868</v>
+      </c>
+      <c r="I36" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="J36">
+        <v>1.022993E-3</v>
+      </c>
+      <c r="K36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>33238</v>
       </c>
@@ -1656,8 +2182,23 @@
         <f t="shared" si="1"/>
         <v>23.303762710000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G37">
+        <v>20194003803614.602</v>
+      </c>
+      <c r="H37">
+        <v>20194.003799999999</v>
+      </c>
+      <c r="I37" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="J37">
+        <v>1.220659E-3</v>
+      </c>
+      <c r="K37">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>32873</v>
       </c>
@@ -1678,8 +2219,23 @@
         <f t="shared" si="1"/>
         <v>24.649990786</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G38">
+        <v>19337997470087.398</v>
+      </c>
+      <c r="H38">
+        <v>19337.997469999998</v>
+      </c>
+      <c r="I38" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J38">
+        <v>1.371599E-3</v>
+      </c>
+      <c r="K38">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>32508</v>
       </c>
@@ -1700,8 +2256,23 @@
         <f t="shared" si="1"/>
         <v>26.523969177000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G39">
+        <v>17307238004339.9</v>
+      </c>
+      <c r="H39">
+        <v>17307.238000000001</v>
+      </c>
+      <c r="I39" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J39">
+        <v>1.769105E-3</v>
+      </c>
+      <c r="K39">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>32142</v>
       </c>
@@ -1722,8 +2293,23 @@
         <f t="shared" si="1"/>
         <v>30.618322055</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G40">
+        <v>15205315531175.4</v>
+      </c>
+      <c r="H40">
+        <v>15205.31553</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="J40">
+        <v>2.3247179999999999E-3</v>
+      </c>
+      <c r="K40">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>31777</v>
       </c>
@@ -1744,8 +2330,23 @@
         <f t="shared" si="1"/>
         <v>35.348075575000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G41">
+        <v>12860094462309.801</v>
+      </c>
+      <c r="H41">
+        <v>12860.09446</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J41">
+        <v>2.9288299999999999E-3</v>
+      </c>
+      <c r="K41">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>31412</v>
       </c>
@@ -1766,8 +2367,23 @@
         <f t="shared" si="1"/>
         <v>37.665035197000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G42">
+        <v>12269792365284.9</v>
+      </c>
+      <c r="H42">
+        <v>12269.792369999999</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="J42">
+        <v>3.0731280000000001E-3</v>
+      </c>
+      <c r="K42">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>31047</v>
       </c>
